--- a/medicine/Pharmacie/1715_en_santé_et_médecine/1715_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1715_en_santé_et_médecine/1715_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1715_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1715_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1715 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1715_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1715_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>France
-10 août : Louis XIV se plaint d’une douleur a la jambe. Ses médecins pensent à une sciatique mais en fait, il a la gangrène, qui apparaît le 19 août[1].
-Le 1er septembre 1715, aux alentours de 8 h 15 du matin, Louis XIV meurt d'une ischémie aiguë du membre inférieur, causée par une embolie liée à une arythmie complète, compliquée de gangrène, à l'âge de 76 ans[2].
-Création par Louis XV d'une 8e chaire à l’université de Montpellier : la clinique interne[3].</t>
+10 août : Louis XIV se plaint d’une douleur a la jambe. Ses médecins pensent à une sciatique mais en fait, il a la gangrène, qui apparaît le 19 août.
+Le 1er septembre 1715, aux alentours de 8 h 15 du matin, Louis XIV meurt d'une ischémie aiguë du membre inférieur, causée par une embolie liée à une arythmie complète, compliquée de gangrène, à l'âge de 76 ans.
+Création par Louis XV d'une 8e chaire à l’université de Montpellier : la clinique interne.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1715_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1715_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Raymond Vieussens publie un nouveau traité sur les maladies du cœur : Traité nouveau de la structure et des causes du mouvement naturel du cœur, Toulouse, Guillemette (lire en ligne)[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Raymond Vieussens publie un nouveau traité sur les maladies du cœur : Traité nouveau de la structure et des causes du mouvement naturel du cœur, Toulouse, Guillemette (lire en ligne).</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1715_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1715_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>30 janvier : Jean-Baptiste Lestiboudois (mort en 1804), botaniste et  pharmacien français, pharmacien en chef de l’armée française en 1739.
 3 avril : William Watson (mort en 1787), médecin et scientifique anglais.
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1715_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1715_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>21 mai : Pierre Magnol (né en 1638), médecin et botaniste français.
 19 juin : Nicolas Lémery (né en 1645), apothicaire et chimiste français.
